--- a/Raw Data/2021 ESF Data Files/heer-2021-supporting-documentation.xlsx
+++ b/Raw Data/2021 ESF Data Files/heer-2021-supporting-documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenilano/Dropbox/EdTrust/HEERF_Git/Raw Data/2021 ESF Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A52CF-5872-6447-94F9-7B5DA1C2363E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1181C3-6CA3-994B-80AB-1B8DF1351CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="2060" windowWidth="33660" windowHeight="19400" activeTab="1" xr2:uid="{787F7EC0-2752-403A-BAEB-7E9494ADD8C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{787F7EC0-2752-403A-BAEB-7E9494ADD8C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
@@ -9247,7 +9247,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9416,6 +9416,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9458,16 +9470,39 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10102,7 +10137,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10112,16 +10147,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>1788</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="69" t="s">
         <v>630</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
@@ -10148,10 +10183,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="70" t="s">
         <v>1654</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="71"/>
     </row>
     <row r="7" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -10274,10 +10309,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="70" t="s">
         <v>1666</v>
       </c>
-      <c r="B22" s="67"/>
+      <c r="B22" s="71"/>
     </row>
     <row r="23" spans="1:2" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -10336,28 +10371,28 @@
       </c>
     </row>
     <row r="30" spans="1:2" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="63"/>
     </row>
     <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="64" t="s">
         <v>637</v>
       </c>
-      <c r="B31" s="61"/>
+      <c r="B31" s="65"/>
     </row>
     <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="64" t="s">
         <v>1677</v>
       </c>
-      <c r="B32" s="61"/>
+      <c r="B32" s="65"/>
     </row>
     <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="66" t="s">
         <v>638</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="67"/>
     </row>
     <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -10407,19 +10442,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4B98AA-F7A0-4D70-8366-548ED145267B}">
   <dimension ref="A1:O593"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C343" sqref="C343"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A541" sqref="A541:G541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.83203125" style="57" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.1640625" style="57" customWidth="1"/>
     <col min="8" max="8" width="47.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="15" customWidth="1"/>
     <col min="10" max="13" width="14.5" style="15" customWidth="1"/>
@@ -10427,23 +10463,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>1648</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
     </row>
     <row r="2" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -10631,7 +10667,7 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="58" t="s">
         <v>646</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -10666,7 +10702,7 @@
       <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -10701,7 +10737,7 @@
       <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -10736,7 +10772,7 @@
       <c r="O9" s="31"/>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="59" t="s">
         <v>1283</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -10771,7 +10807,7 @@
       <c r="O10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -10806,7 +10842,7 @@
       <c r="O11" s="31"/>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -10841,7 +10877,7 @@
       <c r="O12" s="31"/>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -10876,7 +10912,7 @@
       <c r="O13" s="31"/>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -10911,7 +10947,7 @@
       <c r="O14" s="31"/>
     </row>
     <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -10946,7 +10982,7 @@
       <c r="O15" s="31"/>
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -10981,7 +11017,7 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -11016,7 +11052,7 @@
       <c r="O17" s="31"/>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -11051,7 +11087,7 @@
       <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -11086,7 +11122,7 @@
       <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -11365,40 +11401,40 @@
       </c>
       <c r="O27" s="31"/>
     </row>
-    <row r="28" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:15" s="79" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A28" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="60" t="s">
         <v>624</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="60" t="s">
         <v>1073</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="61" t="s">
         <v>650</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="60" t="s">
         <v>1004</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N28" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O28" s="31"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N28" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O28" s="78"/>
     </row>
     <row r="29" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
@@ -11471,25 +11507,25 @@
       <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D31" s="33" t="b">
+      <c r="D31" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="60" t="s">
         <v>671</v>
       </c>
       <c r="H31" s="32"/>
@@ -11505,390 +11541,390 @@
       </c>
       <c r="O31" s="31"/>
     </row>
-    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+    <row r="32" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D32" s="33" t="b">
+      <c r="D32" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="60" t="s">
         <v>672</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N32" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O32" s="31"/>
-    </row>
-    <row r="33" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N32" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O32" s="78"/>
+    </row>
+    <row r="33" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D33" s="33" t="b">
+      <c r="D33" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="60" t="s">
         <v>673</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N33" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O33" s="31"/>
-    </row>
-    <row r="34" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+      <c r="H33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N33" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O33" s="78"/>
+    </row>
+    <row r="34" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D34" s="33" t="b">
+      <c r="D34" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="60" t="s">
         <v>844</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O34" s="31"/>
-    </row>
-    <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N34" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O34" s="78"/>
+    </row>
+    <row r="35" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D35" s="33" t="b">
+      <c r="D35" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="60" t="s">
         <v>845</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N35" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O35" s="31"/>
-    </row>
-    <row r="36" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+      <c r="H35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N35" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O35" s="78"/>
+    </row>
+    <row r="36" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D36" s="33" t="b">
+      <c r="D36" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="60" t="s">
         <v>846</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N36" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O36" s="31"/>
-    </row>
-    <row r="37" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+      <c r="M36" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N36" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O36" s="78"/>
+    </row>
+    <row r="37" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D37" s="33" t="b">
+      <c r="D37" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N37" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O37" s="31"/>
-    </row>
-    <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N37" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O37" s="78"/>
+    </row>
+    <row r="38" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D38" s="33" t="b">
+      <c r="D38" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="60" t="s">
         <v>848</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N38" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O38" s="31"/>
-    </row>
-    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N38" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O38" s="78"/>
+    </row>
+    <row r="39" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D39" s="33" t="b">
+      <c r="D39" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N39" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O39" s="31"/>
-    </row>
-    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N39" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O39" s="78"/>
+    </row>
+    <row r="40" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D40" s="33" t="b">
+      <c r="D40" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="60" t="s">
         <v>850</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N40" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O40" s="31"/>
-    </row>
-    <row r="41" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N40" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O40" s="78"/>
+    </row>
+    <row r="41" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D41" s="33" t="b">
+      <c r="D41" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="60" t="s">
         <v>674</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N41" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O41" s="31"/>
-    </row>
-    <row r="42" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N41" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O41" s="78"/>
+    </row>
+    <row r="42" spans="1:15" s="79" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D42" s="33" t="b">
+      <c r="D42" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="60" t="s">
         <v>675</v>
       </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O42" s="31"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N42" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O42" s="78"/>
     </row>
     <row r="43" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
@@ -11996,25 +12032,25 @@
       <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D46" s="33" t="b">
+      <c r="D46" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="60" t="s">
         <v>852</v>
       </c>
       <c r="H46" s="32"/>
@@ -12031,25 +12067,25 @@
       <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D47" s="33" t="b">
+      <c r="D47" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="60" t="s">
         <v>853</v>
       </c>
       <c r="H47" s="32"/>
@@ -12066,25 +12102,25 @@
       <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D48" s="33" t="b">
+      <c r="D48" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="60" t="s">
         <v>987</v>
       </c>
       <c r="H48" s="32"/>
@@ -12101,25 +12137,25 @@
       <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="60" t="s">
         <v>628</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="D49" s="33" t="b">
+      <c r="D49" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="60" t="s">
         <v>854</v>
       </c>
       <c r="H49" s="32"/>
@@ -12556,7 +12592,7 @@
       <c r="O61" s="31"/>
     </row>
     <row r="62" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="59" t="s">
         <v>82</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -12591,7 +12627,7 @@
       <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="73" t="s">
+      <c r="A63" s="59" t="s">
         <v>83</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -12626,7 +12662,7 @@
       <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A64" s="73" t="s">
+      <c r="A64" s="59" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -12661,7 +12697,7 @@
       <c r="O64" s="31"/>
     </row>
     <row r="65" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A65" s="73" t="s">
+      <c r="A65" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -12696,7 +12732,7 @@
       <c r="O65" s="31"/>
     </row>
     <row r="66" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A66" s="73" t="s">
+      <c r="A66" s="59" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -12731,7 +12767,7 @@
       <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="59" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -12766,7 +12802,7 @@
       <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A68" s="73" t="s">
+      <c r="A68" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -12805,7 +12841,7 @@
       <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A69" s="73" t="s">
+      <c r="A69" s="59" t="s">
         <v>89</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -12840,7 +12876,7 @@
       <c r="O69" s="31"/>
     </row>
     <row r="70" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="73" t="s">
+      <c r="A70" s="59" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -12875,7 +12911,7 @@
       <c r="O70" s="31"/>
     </row>
     <row r="71" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A71" s="73" t="s">
+      <c r="A71" s="59" t="s">
         <v>91</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -12910,7 +12946,7 @@
       <c r="O71" s="31"/>
     </row>
     <row r="72" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" s="73" t="s">
+      <c r="A72" s="59" t="s">
         <v>92</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -12945,7 +12981,7 @@
       <c r="O72" s="31"/>
     </row>
     <row r="73" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="73" t="s">
+      <c r="A73" s="59" t="s">
         <v>93</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -12980,7 +13016,7 @@
       <c r="O73" s="31"/>
     </row>
     <row r="74" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="73" t="s">
+      <c r="A74" s="59" t="s">
         <v>94</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -13015,7 +13051,7 @@
       <c r="O74" s="31"/>
     </row>
     <row r="75" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="59" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -13761,44 +13797,44 @@
       </c>
       <c r="O95" s="31"/>
     </row>
-    <row r="96" spans="1:15" ht="96" x14ac:dyDescent="0.2">
-      <c r="A96" s="73" t="s">
+    <row r="96" spans="1:15" s="86" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A96" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C96" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D96" s="36">
+      <c r="D96" s="82">
         <v>1553</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="F96" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="81" t="s">
         <v>876</v>
       </c>
-      <c r="H96" s="32" t="s">
+      <c r="H96" s="83" t="s">
         <v>952</v>
       </c>
-      <c r="I96" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N96" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O96" s="31"/>
+      <c r="I96" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="J96" s="84"/>
+      <c r="K96" s="84"/>
+      <c r="L96" s="84"/>
+      <c r="M96" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N96" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O96" s="85"/>
     </row>
     <row r="97" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
@@ -14049,254 +14085,254 @@
       </c>
       <c r="O103" s="31"/>
     </row>
-    <row r="104" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="73" t="s">
+    <row r="104" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C104" s="11" t="s">
+      <c r="B104" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C104" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D104" s="36">
+      <c r="D104" s="82">
         <v>100098</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F104" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="81" t="s">
         <v>877</v>
       </c>
-      <c r="H104" s="32"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N104" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O104" s="31"/>
-    </row>
-    <row r="105" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A105" s="73" t="s">
+      <c r="H104" s="83"/>
+      <c r="I104" s="84"/>
+      <c r="J104" s="84"/>
+      <c r="K104" s="84"/>
+      <c r="L104" s="84"/>
+      <c r="M104" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N104" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O104" s="85"/>
+    </row>
+    <row r="105" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A105" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C105" s="11" t="s">
+      <c r="B105" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C105" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D105" s="36">
+      <c r="D105" s="82">
         <v>4589</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F105" s="11" t="s">
+      <c r="F105" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="G105" s="81" t="s">
         <v>878</v>
       </c>
-      <c r="H105" s="32"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N105" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O105" s="31"/>
-    </row>
-    <row r="106" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A106" s="73" t="s">
+      <c r="H105" s="83"/>
+      <c r="I105" s="84"/>
+      <c r="J105" s="84"/>
+      <c r="K105" s="84"/>
+      <c r="L105" s="84"/>
+      <c r="M105" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N105" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O105" s="85"/>
+    </row>
+    <row r="106" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A106" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C106" s="11" t="s">
+      <c r="B106" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C106" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D106" s="36">
+      <c r="D106" s="82">
         <v>79321</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F106" s="11" t="s">
+      <c r="F106" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G106" s="11" t="s">
+      <c r="G106" s="81" t="s">
         <v>879</v>
       </c>
-      <c r="H106" s="32"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N106" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O106" s="31"/>
-    </row>
-    <row r="107" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A107" s="73" t="s">
+      <c r="H106" s="83"/>
+      <c r="I106" s="84"/>
+      <c r="J106" s="84"/>
+      <c r="K106" s="84"/>
+      <c r="L106" s="84"/>
+      <c r="M106" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N106" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O106" s="85"/>
+    </row>
+    <row r="107" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C107" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D107" s="36">
+      <c r="D107" s="82">
         <v>818973</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F107" s="11" t="s">
+      <c r="F107" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="81" t="s">
         <v>880</v>
       </c>
-      <c r="H107" s="32"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N107" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O107" s="31"/>
-    </row>
-    <row r="108" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A108" s="73" t="s">
+      <c r="H107" s="83"/>
+      <c r="I107" s="84"/>
+      <c r="J107" s="84"/>
+      <c r="K107" s="84"/>
+      <c r="L107" s="84"/>
+      <c r="M107" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N107" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O107" s="85"/>
+    </row>
+    <row r="108" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A108" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C108" s="11" t="s">
+      <c r="B108" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C108" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D108" s="36">
+      <c r="D108" s="82">
         <v>54981</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G108" s="11" t="s">
+      <c r="G108" s="81" t="s">
         <v>881</v>
       </c>
-      <c r="H108" s="32"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N108" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O108" s="31"/>
-    </row>
-    <row r="109" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A109" s="73" t="s">
+      <c r="H108" s="83"/>
+      <c r="I108" s="84"/>
+      <c r="J108" s="84"/>
+      <c r="K108" s="84"/>
+      <c r="L108" s="84"/>
+      <c r="M108" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N108" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O108" s="85"/>
+    </row>
+    <row r="109" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A109" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C109" s="11" t="s">
+      <c r="B109" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C109" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D109" s="36">
+      <c r="D109" s="82">
         <v>6847</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F109" s="11" t="s">
+      <c r="F109" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G109" s="11" t="s">
+      <c r="G109" s="81" t="s">
         <v>882</v>
       </c>
-      <c r="H109" s="32"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N109" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O109" s="31"/>
-    </row>
-    <row r="110" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A110" s="73" t="s">
+      <c r="H109" s="83"/>
+      <c r="I109" s="84"/>
+      <c r="J109" s="84"/>
+      <c r="K109" s="84"/>
+      <c r="L109" s="84"/>
+      <c r="M109" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N109" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O109" s="85"/>
+    </row>
+    <row r="110" spans="1:15" s="86" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A110" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C110" s="11" t="s">
+      <c r="B110" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C110" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D110" s="36">
+      <c r="D110" s="82">
         <v>81189</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G110" s="81" t="s">
         <v>883</v>
       </c>
-      <c r="H110" s="32" t="s">
+      <c r="H110" s="83" t="s">
         <v>954</v>
       </c>
-      <c r="I110" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N110" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O110" s="31"/>
+      <c r="I110" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="J110" s="84"/>
+      <c r="K110" s="84"/>
+      <c r="L110" s="84"/>
+      <c r="M110" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N110" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O110" s="85"/>
     </row>
     <row r="111" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="53" t="s">
@@ -14547,254 +14583,254 @@
       </c>
       <c r="O117" s="31"/>
     </row>
-    <row r="118" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A118" s="73" t="s">
+    <row r="118" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A118" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C118" s="11" t="s">
+      <c r="B118" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C118" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D118" s="36">
+      <c r="D118" s="82">
         <v>847987</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F118" s="11" t="s">
+      <c r="F118" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="G118" s="81" t="s">
         <v>891</v>
       </c>
-      <c r="H118" s="32"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N118" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O118" s="31"/>
-    </row>
-    <row r="119" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A119" s="73" t="s">
+      <c r="H118" s="83"/>
+      <c r="I118" s="84"/>
+      <c r="J118" s="84"/>
+      <c r="K118" s="84"/>
+      <c r="L118" s="84"/>
+      <c r="M118" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N118" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O118" s="85"/>
+    </row>
+    <row r="119" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A119" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C119" s="11" t="s">
+      <c r="B119" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C119" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D119" s="36">
+      <c r="D119" s="82">
         <v>84981</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G119" s="11" t="s">
+      <c r="G119" s="81" t="s">
         <v>892</v>
       </c>
-      <c r="H119" s="32"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N119" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O119" s="31"/>
-    </row>
-    <row r="120" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A120" s="73" t="s">
+      <c r="H119" s="83"/>
+      <c r="I119" s="84"/>
+      <c r="J119" s="84"/>
+      <c r="K119" s="84"/>
+      <c r="L119" s="84"/>
+      <c r="M119" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N119" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O119" s="85"/>
+    </row>
+    <row r="120" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C120" s="11" t="s">
+      <c r="B120" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C120" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D120" s="36">
+      <c r="D120" s="82">
         <v>873</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G120" s="11" t="s">
+      <c r="G120" s="81" t="s">
         <v>893</v>
       </c>
-      <c r="H120" s="32"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N120" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O120" s="31"/>
-    </row>
-    <row r="121" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A121" s="73" t="s">
+      <c r="H120" s="83"/>
+      <c r="I120" s="84"/>
+      <c r="J120" s="84"/>
+      <c r="K120" s="84"/>
+      <c r="L120" s="84"/>
+      <c r="M120" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N120" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O120" s="85"/>
+    </row>
+    <row r="121" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A121" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C121" s="11" t="s">
+      <c r="B121" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C121" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D121" s="36">
+      <c r="D121" s="82">
         <v>8798</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="F121" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G121" s="11" t="s">
+      <c r="G121" s="81" t="s">
         <v>894</v>
       </c>
-      <c r="H121" s="32"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N121" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O121" s="31"/>
-    </row>
-    <row r="122" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A122" s="73" t="s">
+      <c r="H121" s="83"/>
+      <c r="I121" s="84"/>
+      <c r="J121" s="84"/>
+      <c r="K121" s="84"/>
+      <c r="L121" s="84"/>
+      <c r="M121" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N121" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O121" s="85"/>
+    </row>
+    <row r="122" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A122" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C122" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D122" s="36">
+      <c r="D122" s="82">
         <v>777951</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G122" s="11" t="s">
+      <c r="G122" s="81" t="s">
         <v>895</v>
       </c>
-      <c r="H122" s="32"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N122" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O122" s="31"/>
-    </row>
-    <row r="123" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A123" s="73" t="s">
+      <c r="H122" s="83"/>
+      <c r="I122" s="84"/>
+      <c r="J122" s="84"/>
+      <c r="K122" s="84"/>
+      <c r="L122" s="84"/>
+      <c r="M122" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N122" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O122" s="85"/>
+    </row>
+    <row r="123" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A123" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C123" s="11" t="s">
+      <c r="B123" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C123" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D123" s="36">
+      <c r="D123" s="82">
         <v>4189.3</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F123" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G123" s="11" t="s">
+      <c r="G123" s="81" t="s">
         <v>896</v>
       </c>
-      <c r="H123" s="32"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N123" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O123" s="31"/>
-    </row>
-    <row r="124" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A124" s="73" t="s">
+      <c r="H123" s="83"/>
+      <c r="I123" s="84"/>
+      <c r="J123" s="84"/>
+      <c r="K123" s="84"/>
+      <c r="L123" s="84"/>
+      <c r="M123" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N123" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O123" s="85"/>
+    </row>
+    <row r="124" spans="1:15" s="86" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A124" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C124" s="11" t="s">
+      <c r="B124" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C124" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D124" s="36">
+      <c r="D124" s="82">
         <v>10864.547</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G124" s="11" t="s">
+      <c r="G124" s="81" t="s">
         <v>897</v>
       </c>
-      <c r="H124" s="32" t="s">
+      <c r="H124" s="83" t="s">
         <v>955</v>
       </c>
-      <c r="I124" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N124" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O124" s="31"/>
+      <c r="I124" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="J124" s="84"/>
+      <c r="K124" s="84"/>
+      <c r="L124" s="84"/>
+      <c r="M124" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N124" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O124" s="85"/>
     </row>
     <row r="125" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A125" s="53" t="s">
@@ -15045,254 +15081,254 @@
       </c>
       <c r="O131" s="31"/>
     </row>
-    <row r="132" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A132" s="73" t="s">
+    <row r="132" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C132" s="11" t="s">
+      <c r="B132" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C132" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D132" s="36">
+      <c r="D132" s="82">
         <v>54.88</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F132" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G132" s="11" t="s">
+      <c r="G132" s="81" t="s">
         <v>905</v>
       </c>
-      <c r="H132" s="32"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N132" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O132" s="31"/>
-    </row>
-    <row r="133" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A133" s="73" t="s">
+      <c r="H132" s="83"/>
+      <c r="I132" s="84"/>
+      <c r="J132" s="84"/>
+      <c r="K132" s="84"/>
+      <c r="L132" s="84"/>
+      <c r="M132" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N132" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O132" s="85"/>
+    </row>
+    <row r="133" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A133" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C133" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D133" s="36">
+      <c r="D133" s="82">
         <v>123.1</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="F133" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G133" s="11" t="s">
+      <c r="G133" s="81" t="s">
         <v>906</v>
       </c>
-      <c r="H133" s="32"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N133" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O133" s="31"/>
-    </row>
-    <row r="134" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A134" s="73" t="s">
+      <c r="H133" s="83"/>
+      <c r="I133" s="84"/>
+      <c r="J133" s="84"/>
+      <c r="K133" s="84"/>
+      <c r="L133" s="84"/>
+      <c r="M133" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N133" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O133" s="85"/>
+    </row>
+    <row r="134" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A134" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C134" s="11" t="s">
+      <c r="B134" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C134" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D134" s="36">
+      <c r="D134" s="82">
         <v>2154.5</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F134" s="11" t="s">
+      <c r="F134" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G134" s="11" t="s">
+      <c r="G134" s="81" t="s">
         <v>907</v>
       </c>
-      <c r="H134" s="32"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N134" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O134" s="31"/>
-    </row>
-    <row r="135" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A135" s="73" t="s">
+      <c r="H134" s="83"/>
+      <c r="I134" s="84"/>
+      <c r="J134" s="84"/>
+      <c r="K134" s="84"/>
+      <c r="L134" s="84"/>
+      <c r="M134" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N134" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O134" s="85"/>
+    </row>
+    <row r="135" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A135" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C135" s="11" t="s">
+      <c r="B135" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C135" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D135" s="36">
+      <c r="D135" s="82">
         <v>98456.44</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F135" s="11" t="s">
+      <c r="F135" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G135" s="81" t="s">
         <v>908</v>
       </c>
-      <c r="H135" s="32"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N135" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O135" s="31"/>
-    </row>
-    <row r="136" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A136" s="73" t="s">
+      <c r="H135" s="83"/>
+      <c r="I135" s="84"/>
+      <c r="J135" s="84"/>
+      <c r="K135" s="84"/>
+      <c r="L135" s="84"/>
+      <c r="M135" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N135" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O135" s="85"/>
+    </row>
+    <row r="136" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A136" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C136" s="11" t="s">
+      <c r="B136" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C136" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D136" s="36">
+      <c r="D136" s="82">
         <v>102110</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F136" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="G136" s="81" t="s">
         <v>909</v>
       </c>
-      <c r="H136" s="32"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N136" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O136" s="31"/>
-    </row>
-    <row r="137" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A137" s="73" t="s">
+      <c r="H136" s="83"/>
+      <c r="I136" s="84"/>
+      <c r="J136" s="84"/>
+      <c r="K136" s="84"/>
+      <c r="L136" s="84"/>
+      <c r="M136" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N136" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O136" s="85"/>
+    </row>
+    <row r="137" spans="1:15" s="86" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A137" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C137" s="11" t="s">
+      <c r="B137" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C137" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D137" s="36">
+      <c r="D137" s="82">
         <v>101886</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F137" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G137" s="11" t="s">
+      <c r="G137" s="81" t="s">
         <v>910</v>
       </c>
-      <c r="H137" s="32"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N137" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O137" s="31"/>
-    </row>
-    <row r="138" spans="1:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="A138" s="73" t="s">
+      <c r="H137" s="83"/>
+      <c r="I137" s="84"/>
+      <c r="J137" s="84"/>
+      <c r="K137" s="84"/>
+      <c r="L137" s="84"/>
+      <c r="M137" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N137" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O137" s="85"/>
+    </row>
+    <row r="138" spans="1:15" s="86" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A138" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C138" s="11" t="s">
+      <c r="B138" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C138" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="D138" s="36">
+      <c r="D138" s="82">
         <v>248013</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F138" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="G138" s="11" t="s">
+      <c r="G138" s="81" t="s">
         <v>911</v>
       </c>
-      <c r="H138" s="32" t="s">
+      <c r="H138" s="83" t="s">
         <v>957</v>
       </c>
-      <c r="I138" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N138" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O138" s="31"/>
+      <c r="I138" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="J138" s="84"/>
+      <c r="K138" s="84"/>
+      <c r="L138" s="84"/>
+      <c r="M138" s="84" t="s">
+        <v>947</v>
+      </c>
+      <c r="N138" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="O138" s="85"/>
     </row>
     <row r="139" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="53" t="s">
@@ -15544,7 +15580,7 @@
       <c r="O145" s="31"/>
     </row>
     <row r="146" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="73" t="s">
+      <c r="A146" s="59" t="s">
         <v>168</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -15579,7 +15615,7 @@
       <c r="O146" s="31"/>
     </row>
     <row r="147" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A147" s="73" t="s">
+      <c r="A147" s="59" t="s">
         <v>169</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -15614,7 +15650,7 @@
       <c r="O147" s="31"/>
     </row>
     <row r="148" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A148" s="73" t="s">
+      <c r="A148" s="59" t="s">
         <v>170</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -15649,7 +15685,7 @@
       <c r="O148" s="31"/>
     </row>
     <row r="149" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A149" s="73" t="s">
+      <c r="A149" s="59" t="s">
         <v>171</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -15684,7 +15720,7 @@
       <c r="O149" s="31"/>
     </row>
     <row r="150" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A150" s="73" t="s">
+      <c r="A150" s="59" t="s">
         <v>172</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -15719,7 +15755,7 @@
       <c r="O150" s="31"/>
     </row>
     <row r="151" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A151" s="73" t="s">
+      <c r="A151" s="59" t="s">
         <v>173</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -15754,7 +15790,7 @@
       <c r="O151" s="31"/>
     </row>
     <row r="152" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A152" s="73" t="s">
+      <c r="A152" s="59" t="s">
         <v>174</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -15793,7 +15829,7 @@
       <c r="O152" s="31"/>
     </row>
     <row r="153" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A153" s="73" t="s">
+      <c r="A153" s="59" t="s">
         <v>175</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -15828,7 +15864,7 @@
       <c r="O153" s="31"/>
     </row>
     <row r="154" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A154" s="73" t="s">
+      <c r="A154" s="59" t="s">
         <v>176</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -15863,7 +15899,7 @@
       <c r="O154" s="31"/>
     </row>
     <row r="155" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A155" s="73" t="s">
+      <c r="A155" s="59" t="s">
         <v>177</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -15898,7 +15934,7 @@
       <c r="O155" s="31"/>
     </row>
     <row r="156" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A156" s="73" t="s">
+      <c r="A156" s="59" t="s">
         <v>178</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -15933,7 +15969,7 @@
       <c r="O156" s="31"/>
     </row>
     <row r="157" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A157" s="73" t="s">
+      <c r="A157" s="59" t="s">
         <v>179</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -15968,7 +16004,7 @@
       <c r="O157" s="31"/>
     </row>
     <row r="158" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A158" s="73" t="s">
+      <c r="A158" s="59" t="s">
         <v>180</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -16003,7 +16039,7 @@
       <c r="O158" s="31"/>
     </row>
     <row r="159" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A159" s="73" t="s">
+      <c r="A159" s="59" t="s">
         <v>181</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -16042,7 +16078,7 @@
       <c r="O159" s="31"/>
     </row>
     <row r="160" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A160" s="73" t="s">
+      <c r="A160" s="59" t="s">
         <v>182</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -16081,7 +16117,7 @@
       <c r="O160" s="31"/>
     </row>
     <row r="161" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A161" s="73" t="s">
+      <c r="A161" s="59" t="s">
         <v>183</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -16120,7 +16156,7 @@
       <c r="O161" s="31"/>
     </row>
     <row r="162" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A162" s="73" t="s">
+      <c r="A162" s="59" t="s">
         <v>184</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -16159,7 +16195,7 @@
       <c r="O162" s="31"/>
     </row>
     <row r="163" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A163" s="73" t="s">
+      <c r="A163" s="59" t="s">
         <v>185</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -16198,7 +16234,7 @@
       <c r="O163" s="31"/>
     </row>
     <row r="164" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A164" s="73" t="s">
+      <c r="A164" s="59" t="s">
         <v>186</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -16237,7 +16273,7 @@
       <c r="O164" s="31"/>
     </row>
     <row r="165" spans="1:15" ht="80" x14ac:dyDescent="0.2">
-      <c r="A165" s="73" t="s">
+      <c r="A165" s="59" t="s">
         <v>187</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -16276,7 +16312,7 @@
       <c r="O165" s="31"/>
     </row>
     <row r="166" spans="1:15" ht="96" x14ac:dyDescent="0.2">
-      <c r="A166" s="73" t="s">
+      <c r="A166" s="59" t="s">
         <v>188</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -16315,7 +16351,7 @@
       <c r="O166" s="31"/>
     </row>
     <row r="167" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A167" s="73" t="s">
+      <c r="A167" s="59" t="s">
         <v>189</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -16354,7 +16390,7 @@
       <c r="O167" s="31"/>
     </row>
     <row r="168" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A168" s="73" t="s">
+      <c r="A168" s="59" t="s">
         <v>190</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -16393,7 +16429,7 @@
       <c r="O168" s="31"/>
     </row>
     <row r="169" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A169" s="73" t="s">
+      <c r="A169" s="59" t="s">
         <v>191</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -16432,7 +16468,7 @@
       <c r="O169" s="31"/>
     </row>
     <row r="170" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A170" s="73" t="s">
+      <c r="A170" s="59" t="s">
         <v>192</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -16471,7 +16507,7 @@
       <c r="O170" s="31"/>
     </row>
     <row r="171" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A171" s="73" t="s">
+      <c r="A171" s="59" t="s">
         <v>193</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -16510,7 +16546,7 @@
       <c r="O171" s="31"/>
     </row>
     <row r="172" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A172" s="73" t="s">
+      <c r="A172" s="59" t="s">
         <v>194</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -16549,7 +16585,7 @@
       <c r="O172" s="31"/>
     </row>
     <row r="173" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A173" s="73" t="s">
+      <c r="A173" s="59" t="s">
         <v>195</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -16588,7 +16624,7 @@
       <c r="O173" s="31"/>
     </row>
     <row r="174" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A174" s="73" t="s">
+      <c r="A174" s="59" t="s">
         <v>198</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -16623,7 +16659,7 @@
       <c r="O174" s="31"/>
     </row>
     <row r="175" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A175" s="73" t="s">
+      <c r="A175" s="59" t="s">
         <v>200</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -16662,7 +16698,7 @@
       <c r="O175" s="31"/>
     </row>
     <row r="176" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A176" s="73" t="s">
+      <c r="A176" s="59" t="s">
         <v>202</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -16697,7 +16733,7 @@
       <c r="O176" s="31"/>
     </row>
     <row r="177" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A177" s="73" t="s">
+      <c r="A177" s="59" t="s">
         <v>204</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -16736,7 +16772,7 @@
       <c r="O177" s="31"/>
     </row>
     <row r="178" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A178" s="73" t="s">
+      <c r="A178" s="59" t="s">
         <v>207</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -16771,7 +16807,7 @@
       <c r="O178" s="31"/>
     </row>
     <row r="179" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A179" s="73" t="s">
+      <c r="A179" s="59" t="s">
         <v>208</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -16806,7 +16842,7 @@
       <c r="O179" s="31"/>
     </row>
     <row r="180" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A180" s="73" t="s">
+      <c r="A180" s="59" t="s">
         <v>209</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -16841,7 +16877,7 @@
       <c r="O180" s="31"/>
     </row>
     <row r="181" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A181" s="73" t="s">
+      <c r="A181" s="59" t="s">
         <v>210</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -16880,7 +16916,7 @@
       <c r="O181" s="31"/>
     </row>
     <row r="182" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A182" s="73" t="s">
+      <c r="A182" s="59" t="s">
         <v>211</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -16915,7 +16951,7 @@
       <c r="O182" s="31"/>
     </row>
     <row r="183" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A183" s="73" t="s">
+      <c r="A183" s="59" t="s">
         <v>212</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -16950,7 +16986,7 @@
       <c r="O183" s="31"/>
     </row>
     <row r="184" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A184" s="73" t="s">
+      <c r="A184" s="59" t="s">
         <v>213</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -16985,7 +17021,7 @@
       <c r="O184" s="31"/>
     </row>
     <row r="185" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A185" s="73" t="s">
+      <c r="A185" s="59" t="s">
         <v>214</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -17024,7 +17060,7 @@
       <c r="O185" s="31"/>
     </row>
     <row r="186" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A186" s="73" t="s">
+      <c r="A186" s="59" t="s">
         <v>215</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -17059,7 +17095,7 @@
       <c r="O186" s="31"/>
     </row>
     <row r="187" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A187" s="73" t="s">
+      <c r="A187" s="59" t="s">
         <v>216</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -17094,7 +17130,7 @@
       <c r="O187" s="31"/>
     </row>
     <row r="188" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A188" s="73" t="s">
+      <c r="A188" s="59" t="s">
         <v>217</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -17129,7 +17165,7 @@
       <c r="O188" s="31"/>
     </row>
     <row r="189" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A189" s="73" t="s">
+      <c r="A189" s="59" t="s">
         <v>218</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -17168,7 +17204,7 @@
       <c r="O189" s="31"/>
     </row>
     <row r="190" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A190" s="73" t="s">
+      <c r="A190" s="59" t="s">
         <v>219</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -17203,7 +17239,7 @@
       <c r="O190" s="31"/>
     </row>
     <row r="191" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A191" s="73" t="s">
+      <c r="A191" s="59" t="s">
         <v>220</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -17238,7 +17274,7 @@
       <c r="O191" s="31"/>
     </row>
     <row r="192" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A192" s="73" t="s">
+      <c r="A192" s="59" t="s">
         <v>221</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -17273,7 +17309,7 @@
       <c r="O192" s="31"/>
     </row>
     <row r="193" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A193" s="73" t="s">
+      <c r="A193" s="59" t="s">
         <v>222</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -17312,7 +17348,7 @@
       <c r="O193" s="31"/>
     </row>
     <row r="194" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A194" s="73" t="s">
+      <c r="A194" s="59" t="s">
         <v>223</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -17347,7 +17383,7 @@
       <c r="O194" s="31"/>
     </row>
     <row r="195" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A195" s="73" t="s">
+      <c r="A195" s="59" t="s">
         <v>224</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -17382,7 +17418,7 @@
       <c r="O195" s="31"/>
     </row>
     <row r="196" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A196" s="73" t="s">
+      <c r="A196" s="59" t="s">
         <v>225</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -17417,7 +17453,7 @@
       <c r="O196" s="31"/>
     </row>
     <row r="197" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A197" s="73" t="s">
+      <c r="A197" s="59" t="s">
         <v>226</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -17456,7 +17492,7 @@
       <c r="O197" s="31"/>
     </row>
     <row r="198" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A198" s="73" t="s">
+      <c r="A198" s="59" t="s">
         <v>227</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -17491,7 +17527,7 @@
       <c r="O198" s="31"/>
     </row>
     <row r="199" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A199" s="73" t="s">
+      <c r="A199" s="59" t="s">
         <v>228</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -17526,7 +17562,7 @@
       <c r="O199" s="31"/>
     </row>
     <row r="200" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A200" s="73" t="s">
+      <c r="A200" s="59" t="s">
         <v>229</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -17561,7 +17597,7 @@
       <c r="O200" s="31"/>
     </row>
     <row r="201" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A201" s="73" t="s">
+      <c r="A201" s="59" t="s">
         <v>230</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -17600,7 +17636,7 @@
       <c r="O201" s="31"/>
     </row>
     <row r="202" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A202" s="73" t="s">
+      <c r="A202" s="59" t="s">
         <v>231</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -17635,7 +17671,7 @@
       <c r="O202" s="31"/>
     </row>
     <row r="203" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A203" s="73" t="s">
+      <c r="A203" s="59" t="s">
         <v>232</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -17670,7 +17706,7 @@
       <c r="O203" s="31"/>
     </row>
     <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A204" s="73" t="s">
+      <c r="A204" s="59" t="s">
         <v>233</v>
       </c>
       <c r="B204" s="11" t="s">
@@ -17705,7 +17741,7 @@
       <c r="O204" s="31"/>
     </row>
     <row r="205" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A205" s="73" t="s">
+      <c r="A205" s="59" t="s">
         <v>234</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -17744,7 +17780,7 @@
       <c r="O205" s="31"/>
     </row>
     <row r="206" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A206" s="73" t="s">
+      <c r="A206" s="59" t="s">
         <v>235</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -17779,7 +17815,7 @@
       <c r="O206" s="31"/>
     </row>
     <row r="207" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A207" s="73" t="s">
+      <c r="A207" s="59" t="s">
         <v>236</v>
       </c>
       <c r="B207" s="11" t="s">
@@ -17814,7 +17850,7 @@
       <c r="O207" s="31"/>
     </row>
     <row r="208" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A208" s="73" t="s">
+      <c r="A208" s="59" t="s">
         <v>237</v>
       </c>
       <c r="B208" s="11" t="s">
@@ -17849,7 +17885,7 @@
       <c r="O208" s="31"/>
     </row>
     <row r="209" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A209" s="73" t="s">
+      <c r="A209" s="59" t="s">
         <v>238</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -17888,7 +17924,7 @@
       <c r="O209" s="31"/>
     </row>
     <row r="210" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A210" s="73" t="s">
+      <c r="A210" s="59" t="s">
         <v>239</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -17923,7 +17959,7 @@
       <c r="O210" s="31"/>
     </row>
     <row r="211" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A211" s="73" t="s">
+      <c r="A211" s="59" t="s">
         <v>240</v>
       </c>
       <c r="B211" s="11" t="s">
@@ -17958,7 +17994,7 @@
       <c r="O211" s="31"/>
     </row>
     <row r="212" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A212" s="73" t="s">
+      <c r="A212" s="59" t="s">
         <v>241</v>
       </c>
       <c r="B212" s="11" t="s">
@@ -17993,7 +18029,7 @@
       <c r="O212" s="31"/>
     </row>
     <row r="213" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A213" s="73" t="s">
+      <c r="A213" s="59" t="s">
         <v>242</v>
       </c>
       <c r="B213" s="11" t="s">
@@ -18032,7 +18068,7 @@
       <c r="O213" s="31"/>
     </row>
     <row r="214" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A214" s="73" t="s">
+      <c r="A214" s="59" t="s">
         <v>243</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -18067,7 +18103,7 @@
       <c r="O214" s="31"/>
     </row>
     <row r="215" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A215" s="73" t="s">
+      <c r="A215" s="59" t="s">
         <v>244</v>
       </c>
       <c r="B215" s="11" t="s">
@@ -18102,7 +18138,7 @@
       <c r="O215" s="31"/>
     </row>
     <row r="216" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A216" s="73" t="s">
+      <c r="A216" s="59" t="s">
         <v>245</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -18137,7 +18173,7 @@
       <c r="O216" s="31"/>
     </row>
     <row r="217" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A217" s="73" t="s">
+      <c r="A217" s="59" t="s">
         <v>246</v>
       </c>
       <c r="B217" s="11" t="s">
@@ -18176,7 +18212,7 @@
       <c r="O217" s="31"/>
     </row>
     <row r="218" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A218" s="73" t="s">
+      <c r="A218" s="59" t="s">
         <v>249</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -18211,7 +18247,7 @@
       <c r="O218" s="31"/>
     </row>
     <row r="219" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A219" s="73" t="s">
+      <c r="A219" s="59" t="s">
         <v>250</v>
       </c>
       <c r="B219" s="11" t="s">
@@ -18246,7 +18282,7 @@
       <c r="O219" s="31"/>
     </row>
     <row r="220" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A220" s="73" t="s">
+      <c r="A220" s="59" t="s">
         <v>251</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -18281,7 +18317,7 @@
       <c r="O220" s="31"/>
     </row>
     <row r="221" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A221" s="73" t="s">
+      <c r="A221" s="59" t="s">
         <v>252</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -18320,7 +18356,7 @@
       <c r="O221" s="31"/>
     </row>
     <row r="222" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A222" s="73" t="s">
+      <c r="A222" s="59" t="s">
         <v>253</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -18355,7 +18391,7 @@
       <c r="O222" s="31"/>
     </row>
     <row r="223" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A223" s="73" t="s">
+      <c r="A223" s="59" t="s">
         <v>254</v>
       </c>
       <c r="B223" s="11" t="s">
@@ -18390,7 +18426,7 @@
       <c r="O223" s="31"/>
     </row>
     <row r="224" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A224" s="73" t="s">
+      <c r="A224" s="59" t="s">
         <v>255</v>
       </c>
       <c r="B224" s="11" t="s">
@@ -18425,7 +18461,7 @@
       <c r="O224" s="31"/>
     </row>
     <row r="225" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A225" s="73" t="s">
+      <c r="A225" s="59" t="s">
         <v>256</v>
       </c>
       <c r="B225" s="11" t="s">
@@ -18464,7 +18500,7 @@
       <c r="O225" s="31"/>
     </row>
     <row r="226" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A226" s="73" t="s">
+      <c r="A226" s="59" t="s">
         <v>257</v>
       </c>
       <c r="B226" s="11" t="s">
@@ -18499,7 +18535,7 @@
       <c r="O226" s="31"/>
     </row>
     <row r="227" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A227" s="73" t="s">
+      <c r="A227" s="59" t="s">
         <v>258</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -18534,7 +18570,7 @@
       <c r="O227" s="31"/>
     </row>
     <row r="228" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A228" s="73" t="s">
+      <c r="A228" s="59" t="s">
         <v>259</v>
       </c>
       <c r="B228" s="11" t="s">
@@ -18569,7 +18605,7 @@
       <c r="O228" s="31"/>
     </row>
     <row r="229" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A229" s="73" t="s">
+      <c r="A229" s="59" t="s">
         <v>260</v>
       </c>
       <c r="B229" s="11" t="s">
@@ -18608,7 +18644,7 @@
       <c r="O229" s="31"/>
     </row>
     <row r="230" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A230" s="73" t="s">
+      <c r="A230" s="59" t="s">
         <v>262</v>
       </c>
       <c r="B230" s="11" t="s">
@@ -18643,7 +18679,7 @@
       <c r="O230" s="31"/>
     </row>
     <row r="231" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A231" s="73" t="s">
+      <c r="A231" s="59" t="s">
         <v>263</v>
       </c>
       <c r="B231" s="11" t="s">
@@ -18678,7 +18714,7 @@
       <c r="O231" s="31"/>
     </row>
     <row r="232" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A232" s="73" t="s">
+      <c r="A232" s="59" t="s">
         <v>264</v>
       </c>
       <c r="B232" s="11" t="s">
@@ -18713,7 +18749,7 @@
       <c r="O232" s="31"/>
     </row>
     <row r="233" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A233" s="73" t="s">
+      <c r="A233" s="59" t="s">
         <v>265</v>
       </c>
       <c r="B233" s="11" t="s">
@@ -18752,7 +18788,7 @@
       <c r="O233" s="31"/>
     </row>
     <row r="234" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A234" s="73" t="s">
+      <c r="A234" s="59" t="s">
         <v>266</v>
       </c>
       <c r="B234" s="11" t="s">
@@ -18787,7 +18823,7 @@
       <c r="O234" s="31"/>
     </row>
     <row r="235" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A235" s="73" t="s">
+      <c r="A235" s="59" t="s">
         <v>267</v>
       </c>
       <c r="B235" s="11" t="s">
@@ -18822,7 +18858,7 @@
       <c r="O235" s="31"/>
     </row>
     <row r="236" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A236" s="73" t="s">
+      <c r="A236" s="59" t="s">
         <v>268</v>
       </c>
       <c r="B236" s="11" t="s">
@@ -18857,7 +18893,7 @@
       <c r="O236" s="31"/>
     </row>
     <row r="237" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A237" s="73" t="s">
+      <c r="A237" s="59" t="s">
         <v>269</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -20906,44 +20942,44 @@
       </c>
       <c r="O294" s="31"/>
     </row>
-    <row r="295" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A295" s="53" t="s">
+    <row r="295" spans="1:15" s="79" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A295" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="B295" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C295" s="11" t="s">
+      <c r="B295" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C295" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="D295" s="36">
+      <c r="D295" s="87">
         <v>650000</v>
       </c>
-      <c r="E295" s="11" t="s">
+      <c r="E295" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="F295" s="11" t="s">
+      <c r="F295" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="G295" s="11" t="s">
+      <c r="G295" s="60" t="s">
         <v>773</v>
       </c>
-      <c r="H295" s="32" t="s">
+      <c r="H295" s="76" t="s">
         <v>979</v>
       </c>
-      <c r="I295" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="J295" s="18"/>
-      <c r="K295" s="18"/>
-      <c r="L295" s="18"/>
-      <c r="M295" s="18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N295" s="31" t="s">
-        <v>947</v>
-      </c>
-      <c r="O295" s="31"/>
+      <c r="I295" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="J295" s="77"/>
+      <c r="K295" s="77"/>
+      <c r="L295" s="77"/>
+      <c r="M295" s="77" t="s">
+        <v>947</v>
+      </c>
+      <c r="N295" s="78" t="s">
+        <v>947</v>
+      </c>
+      <c r="O295" s="78"/>
     </row>
     <row r="296" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="53" t="s">
@@ -21580,25 +21616,25 @@
       <c r="O313" s="31"/>
     </row>
     <row r="314" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A314" s="73" t="s">
+      <c r="A314" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="B314" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C314" s="74" t="s">
+      <c r="B314" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C314" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D314" s="75">
+      <c r="D314" s="61">
         <v>400</v>
       </c>
-      <c r="E314" s="74" t="s">
+      <c r="E314" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F314" s="74" t="s">
+      <c r="F314" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G314" s="74" t="s">
+      <c r="G314" s="60" t="s">
         <v>781</v>
       </c>
       <c r="H314" s="32"/>
@@ -21685,25 +21721,25 @@
       <c r="O316" s="31"/>
     </row>
     <row r="317" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A317" s="73" t="s">
+      <c r="A317" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="B317" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C317" s="74" t="s">
+      <c r="B317" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C317" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D317" s="75">
+      <c r="D317" s="61">
         <v>50</v>
       </c>
-      <c r="E317" s="74" t="s">
+      <c r="E317" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F317" s="74" t="s">
+      <c r="F317" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G317" s="74" t="s">
+      <c r="G317" s="60" t="s">
         <v>1029</v>
       </c>
       <c r="H317" s="32"/>
@@ -21720,25 +21756,25 @@
       <c r="O317" s="31"/>
     </row>
     <row r="318" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A318" s="73" t="s">
+      <c r="A318" s="59" t="s">
         <v>360</v>
       </c>
-      <c r="B318" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C318" s="74" t="s">
+      <c r="B318" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C318" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D318" s="75">
+      <c r="D318" s="61">
         <v>400</v>
       </c>
-      <c r="E318" s="74" t="s">
+      <c r="E318" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F318" s="74" t="s">
+      <c r="F318" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G318" s="74" t="s">
+      <c r="G318" s="60" t="s">
         <v>783</v>
       </c>
       <c r="H318" s="32"/>
@@ -21825,25 +21861,25 @@
       <c r="O320" s="31"/>
     </row>
     <row r="321" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A321" s="73" t="s">
+      <c r="A321" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="B321" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C321" s="74" t="s">
+      <c r="B321" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C321" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D321" s="75">
+      <c r="D321" s="61">
         <v>50</v>
       </c>
-      <c r="E321" s="74" t="s">
+      <c r="E321" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F321" s="74" t="s">
+      <c r="F321" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G321" s="74" t="s">
+      <c r="G321" s="60" t="s">
         <v>1031</v>
       </c>
       <c r="H321" s="32"/>
@@ -21965,25 +22001,25 @@
       <c r="O324" s="31"/>
     </row>
     <row r="325" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A325" s="53" t="s">
+      <c r="A325" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="B325" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C325" s="11" t="s">
+      <c r="B325" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C325" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D325" s="33">
+      <c r="D325" s="61">
         <v>25</v>
       </c>
-      <c r="E325" s="11" t="s">
+      <c r="E325" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F325" s="11" t="s">
+      <c r="F325" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G325" s="11" t="s">
+      <c r="G325" s="60" t="s">
         <v>1033</v>
       </c>
       <c r="H325" s="32"/>
@@ -22105,25 +22141,25 @@
       <c r="O328" s="31"/>
     </row>
     <row r="329" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A329" s="53" t="s">
+      <c r="A329" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="B329" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C329" s="11" t="s">
+      <c r="B329" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C329" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D329" s="33">
+      <c r="D329" s="61">
         <v>25</v>
       </c>
-      <c r="E329" s="11" t="s">
+      <c r="E329" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F329" s="11" t="s">
+      <c r="F329" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G329" s="11" t="s">
+      <c r="G329" s="60" t="s">
         <v>1035</v>
       </c>
       <c r="H329" s="32"/>
@@ -22420,25 +22456,25 @@
       <c r="O337" s="31"/>
     </row>
     <row r="338" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A338" s="73" t="s">
+      <c r="A338" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="B338" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C338" s="74" t="s">
+      <c r="B338" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C338" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D338" s="75">
+      <c r="D338" s="61">
         <v>400</v>
       </c>
-      <c r="E338" s="74" t="s">
+      <c r="E338" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F338" s="74" t="s">
+      <c r="F338" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G338" s="74" t="s">
+      <c r="G338" s="60" t="s">
         <v>810</v>
       </c>
       <c r="H338" s="32"/>
@@ -22525,25 +22561,25 @@
       <c r="O340" s="31"/>
     </row>
     <row r="341" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A341" s="73" t="s">
+      <c r="A341" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="B341" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C341" s="74" t="s">
+      <c r="B341" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C341" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D341" s="75">
+      <c r="D341" s="61">
         <v>50</v>
       </c>
-      <c r="E341" s="74" t="s">
+      <c r="E341" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F341" s="74" t="s">
+      <c r="F341" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G341" s="74" t="s">
+      <c r="G341" s="60" t="s">
         <v>1041</v>
       </c>
       <c r="H341" s="32"/>
@@ -22560,25 +22596,25 @@
       <c r="O341" s="31"/>
     </row>
     <row r="342" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A342" s="73" t="s">
+      <c r="A342" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="B342" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C342" s="74" t="s">
+      <c r="B342" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C342" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D342" s="75">
+      <c r="D342" s="61">
         <v>400</v>
       </c>
-      <c r="E342" s="74" t="s">
+      <c r="E342" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F342" s="74" t="s">
+      <c r="F342" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G342" s="74" t="s">
+      <c r="G342" s="60" t="s">
         <v>812</v>
       </c>
       <c r="H342" s="32"/>
@@ -22665,25 +22701,25 @@
       <c r="O344" s="31"/>
     </row>
     <row r="345" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A345" s="73" t="s">
+      <c r="A345" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="B345" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C345" s="74" t="s">
+      <c r="B345" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C345" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D345" s="75">
+      <c r="D345" s="61">
         <v>50</v>
       </c>
-      <c r="E345" s="74" t="s">
+      <c r="E345" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F345" s="74" t="s">
+      <c r="F345" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G345" s="74" t="s">
+      <c r="G345" s="60" t="s">
         <v>1043</v>
       </c>
       <c r="H345" s="32"/>
@@ -22805,25 +22841,25 @@
       <c r="O348" s="31"/>
     </row>
     <row r="349" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A349" s="53" t="s">
+      <c r="A349" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="B349" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C349" s="11" t="s">
+      <c r="B349" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C349" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D349" s="33">
+      <c r="D349" s="61">
         <v>25</v>
       </c>
-      <c r="E349" s="11" t="s">
+      <c r="E349" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F349" s="11" t="s">
+      <c r="F349" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G349" s="11" t="s">
+      <c r="G349" s="60" t="s">
         <v>1045</v>
       </c>
       <c r="H349" s="32"/>
@@ -22945,25 +22981,25 @@
       <c r="O352" s="31"/>
     </row>
     <row r="353" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A353" s="53" t="s">
+      <c r="A353" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="B353" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C353" s="11" t="s">
+      <c r="B353" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C353" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D353" s="33">
+      <c r="D353" s="61">
         <v>25</v>
       </c>
-      <c r="E353" s="11" t="s">
+      <c r="E353" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F353" s="11" t="s">
+      <c r="F353" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G353" s="11" t="s">
+      <c r="G353" s="60" t="s">
         <v>1047</v>
       </c>
       <c r="H353" s="32"/>
@@ -23260,25 +23296,25 @@
       <c r="O361" s="31"/>
     </row>
     <row r="362" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A362" s="73" t="s">
+      <c r="A362" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="B362" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C362" s="74" t="s">
+      <c r="B362" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C362" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D362" s="75">
+      <c r="D362" s="61">
         <v>400</v>
       </c>
-      <c r="E362" s="74" t="s">
+      <c r="E362" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F362" s="74" t="s">
+      <c r="F362" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G362" s="74" t="s">
+      <c r="G362" s="60" t="s">
         <v>822</v>
       </c>
       <c r="H362" s="32"/>
@@ -23365,25 +23401,25 @@
       <c r="O364" s="31"/>
     </row>
     <row r="365" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A365" s="73" t="s">
+      <c r="A365" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="B365" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C365" s="74" t="s">
+      <c r="B365" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C365" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D365" s="75">
+      <c r="D365" s="61">
         <v>50</v>
       </c>
-      <c r="E365" s="74" t="s">
+      <c r="E365" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F365" s="74" t="s">
+      <c r="F365" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G365" s="74" t="s">
+      <c r="G365" s="60" t="s">
         <v>1053</v>
       </c>
       <c r="H365" s="32"/>
@@ -23400,25 +23436,25 @@
       <c r="O365" s="31"/>
     </row>
     <row r="366" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A366" s="73" t="s">
+      <c r="A366" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="B366" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C366" s="74" t="s">
+      <c r="B366" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C366" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D366" s="75">
+      <c r="D366" s="61">
         <v>400</v>
       </c>
-      <c r="E366" s="74" t="s">
+      <c r="E366" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F366" s="74" t="s">
+      <c r="F366" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G366" s="74" t="s">
+      <c r="G366" s="60" t="s">
         <v>824</v>
       </c>
       <c r="H366" s="32"/>
@@ -23505,25 +23541,25 @@
       <c r="O368" s="31"/>
     </row>
     <row r="369" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A369" s="73" t="s">
+      <c r="A369" s="59" t="s">
         <v>413</v>
       </c>
-      <c r="B369" s="74" t="s">
-        <v>626</v>
-      </c>
-      <c r="C369" s="74" t="s">
+      <c r="B369" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C369" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D369" s="75">
+      <c r="D369" s="61">
         <v>50</v>
       </c>
-      <c r="E369" s="74" t="s">
+      <c r="E369" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F369" s="74" t="s">
+      <c r="F369" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G369" s="74" t="s">
+      <c r="G369" s="60" t="s">
         <v>1055</v>
       </c>
       <c r="H369" s="32"/>
@@ -23645,25 +23681,25 @@
       <c r="O372" s="31"/>
     </row>
     <row r="373" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A373" s="53" t="s">
+      <c r="A373" s="59" t="s">
         <v>417</v>
       </c>
-      <c r="B373" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C373" s="11" t="s">
+      <c r="B373" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C373" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D373" s="33">
+      <c r="D373" s="61">
         <v>25</v>
       </c>
-      <c r="E373" s="11" t="s">
+      <c r="E373" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F373" s="11" t="s">
+      <c r="F373" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G373" s="11" t="s">
+      <c r="G373" s="60" t="s">
         <v>1057</v>
       </c>
       <c r="H373" s="32"/>
@@ -23785,25 +23821,25 @@
       <c r="O376" s="31"/>
     </row>
     <row r="377" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A377" s="53" t="s">
+      <c r="A377" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="B377" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C377" s="11" t="s">
+      <c r="B377" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C377" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D377" s="33">
+      <c r="D377" s="61">
         <v>25</v>
       </c>
-      <c r="E377" s="11" t="s">
+      <c r="E377" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F377" s="11" t="s">
+      <c r="F377" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="G377" s="11" t="s">
+      <c r="G377" s="60" t="s">
         <v>1059</v>
       </c>
       <c r="H377" s="32"/>
@@ -24100,25 +24136,25 @@
       <c r="O385" s="31"/>
     </row>
     <row r="386" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A386" s="53" t="s">
+      <c r="A386" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="B386" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C386" s="11" t="s">
+      <c r="B386" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C386" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D386" s="33">
+      <c r="D386" s="61">
         <v>400</v>
       </c>
-      <c r="E386" s="11" t="s">
+      <c r="E386" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F386" s="11" t="s">
+      <c r="F386" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G386" s="11" t="s">
+      <c r="G386" s="60" t="s">
         <v>1089</v>
       </c>
       <c r="H386" s="32"/>
@@ -24205,25 +24241,25 @@
       <c r="O388" s="31"/>
     </row>
     <row r="389" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A389" s="53" t="s">
+      <c r="A389" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="B389" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C389" s="11" t="s">
+      <c r="B389" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C389" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D389" s="33">
+      <c r="D389" s="61">
         <v>50</v>
       </c>
-      <c r="E389" s="11" t="s">
+      <c r="E389" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F389" s="11" t="s">
+      <c r="F389" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G389" s="11" t="s">
+      <c r="G389" s="60" t="s">
         <v>1090</v>
       </c>
       <c r="H389" s="32"/>
@@ -24240,25 +24276,25 @@
       <c r="O389" s="31"/>
     </row>
     <row r="390" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A390" s="53" t="s">
+      <c r="A390" s="59" t="s">
         <v>435</v>
       </c>
-      <c r="B390" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C390" s="11" t="s">
+      <c r="B390" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C390" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D390" s="33">
+      <c r="D390" s="61">
         <v>400</v>
       </c>
-      <c r="E390" s="11" t="s">
+      <c r="E390" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F390" s="11" t="s">
+      <c r="F390" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G390" s="11" t="s">
+      <c r="G390" s="60" t="s">
         <v>1091</v>
       </c>
       <c r="H390" s="32"/>
@@ -24345,25 +24381,25 @@
       <c r="O392" s="31"/>
     </row>
     <row r="393" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A393" s="53" t="s">
+      <c r="A393" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="B393" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C393" s="11" t="s">
+      <c r="B393" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C393" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D393" s="33">
+      <c r="D393" s="61">
         <v>50</v>
       </c>
-      <c r="E393" s="11" t="s">
+      <c r="E393" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F393" s="11" t="s">
+      <c r="F393" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G393" s="11" t="s">
+      <c r="G393" s="60" t="s">
         <v>1092</v>
       </c>
       <c r="H393" s="32"/>
@@ -24380,25 +24416,25 @@
       <c r="O393" s="31"/>
     </row>
     <row r="394" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A394" s="53" t="s">
+      <c r="A394" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="B394" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C394" s="11" t="s">
+      <c r="B394" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C394" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D394" s="33">
+      <c r="D394" s="61">
         <v>400</v>
       </c>
-      <c r="E394" s="11" t="s">
+      <c r="E394" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F394" s="11" t="s">
+      <c r="F394" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G394" s="11" t="s">
+      <c r="G394" s="60" t="s">
         <v>1093</v>
       </c>
       <c r="H394" s="32"/>
@@ -24485,25 +24521,25 @@
       <c r="O396" s="31"/>
     </row>
     <row r="397" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A397" s="53" t="s">
+      <c r="A397" s="59" t="s">
         <v>442</v>
       </c>
-      <c r="B397" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C397" s="11" t="s">
+      <c r="B397" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C397" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D397" s="33">
+      <c r="D397" s="61">
         <v>50</v>
       </c>
-      <c r="E397" s="11" t="s">
+      <c r="E397" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F397" s="11" t="s">
+      <c r="F397" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G397" s="11" t="s">
+      <c r="G397" s="60" t="s">
         <v>1094</v>
       </c>
       <c r="H397" s="32"/>
@@ -24520,25 +24556,25 @@
       <c r="O397" s="31"/>
     </row>
     <row r="398" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A398" s="53" t="s">
+      <c r="A398" s="59" t="s">
         <v>443</v>
       </c>
-      <c r="B398" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C398" s="11" t="s">
+      <c r="B398" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C398" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D398" s="33">
+      <c r="D398" s="61">
         <v>400</v>
       </c>
-      <c r="E398" s="11" t="s">
+      <c r="E398" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F398" s="11" t="s">
+      <c r="F398" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G398" s="11" t="s">
+      <c r="G398" s="60" t="s">
         <v>1095</v>
       </c>
       <c r="H398" s="32"/>
@@ -24625,25 +24661,25 @@
       <c r="O400" s="31"/>
     </row>
     <row r="401" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A401" s="53" t="s">
+      <c r="A401" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="B401" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C401" s="11" t="s">
+      <c r="B401" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C401" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D401" s="33">
+      <c r="D401" s="61">
         <v>50</v>
       </c>
-      <c r="E401" s="11" t="s">
+      <c r="E401" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F401" s="11" t="s">
+      <c r="F401" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G401" s="11" t="s">
+      <c r="G401" s="60" t="s">
         <v>1096</v>
       </c>
       <c r="H401" s="32"/>
@@ -24660,25 +24696,25 @@
       <c r="O401" s="31"/>
     </row>
     <row r="402" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A402" s="53" t="s">
+      <c r="A402" s="59" t="s">
         <v>447</v>
       </c>
-      <c r="B402" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C402" s="11" t="s">
+      <c r="B402" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C402" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D402" s="33">
+      <c r="D402" s="61">
         <v>400</v>
       </c>
-      <c r="E402" s="11" t="s">
+      <c r="E402" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F402" s="11" t="s">
+      <c r="F402" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G402" s="11" t="s">
+      <c r="G402" s="60" t="s">
         <v>1097</v>
       </c>
       <c r="H402" s="32"/>
@@ -24765,25 +24801,25 @@
       <c r="O404" s="31"/>
     </row>
     <row r="405" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A405" s="53" t="s">
+      <c r="A405" s="59" t="s">
         <v>450</v>
       </c>
-      <c r="B405" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C405" s="11" t="s">
+      <c r="B405" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C405" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D405" s="33">
+      <c r="D405" s="61">
         <v>50</v>
       </c>
-      <c r="E405" s="11" t="s">
+      <c r="E405" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F405" s="11" t="s">
+      <c r="F405" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G405" s="11" t="s">
+      <c r="G405" s="60" t="s">
         <v>1098</v>
       </c>
       <c r="H405" s="32"/>
@@ -24800,25 +24836,25 @@
       <c r="O405" s="31"/>
     </row>
     <row r="406" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A406" s="53" t="s">
+      <c r="A406" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="B406" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C406" s="11" t="s">
+      <c r="B406" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C406" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D406" s="33">
+      <c r="D406" s="61">
         <v>400</v>
       </c>
-      <c r="E406" s="11" t="s">
+      <c r="E406" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F406" s="11" t="s">
+      <c r="F406" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G406" s="11" t="s">
+      <c r="G406" s="60" t="s">
         <v>1099</v>
       </c>
       <c r="H406" s="32"/>
@@ -24905,25 +24941,25 @@
       <c r="O408" s="31"/>
     </row>
     <row r="409" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A409" s="53" t="s">
+      <c r="A409" s="59" t="s">
         <v>454</v>
       </c>
-      <c r="B409" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C409" s="11" t="s">
+      <c r="B409" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C409" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D409" s="33">
+      <c r="D409" s="61">
         <v>50</v>
       </c>
-      <c r="E409" s="11" t="s">
+      <c r="E409" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F409" s="11" t="s">
+      <c r="F409" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G409" s="11" t="s">
+      <c r="G409" s="60" t="s">
         <v>1100</v>
       </c>
       <c r="H409" s="32"/>
@@ -24940,25 +24976,25 @@
       <c r="O409" s="31"/>
     </row>
     <row r="410" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A410" s="53" t="s">
+      <c r="A410" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="B410" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C410" s="11" t="s">
+      <c r="B410" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C410" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D410" s="33">
+      <c r="D410" s="61">
         <v>400</v>
       </c>
-      <c r="E410" s="11" t="s">
+      <c r="E410" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F410" s="11" t="s">
+      <c r="F410" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G410" s="11" t="s">
+      <c r="G410" s="60" t="s">
         <v>1101</v>
       </c>
       <c r="H410" s="32"/>
@@ -25045,25 +25081,25 @@
       <c r="O412" s="31"/>
     </row>
     <row r="413" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A413" s="53" t="s">
+      <c r="A413" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="B413" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C413" s="11" t="s">
+      <c r="B413" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C413" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D413" s="33">
+      <c r="D413" s="61">
         <v>50</v>
       </c>
-      <c r="E413" s="11" t="s">
+      <c r="E413" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F413" s="11" t="s">
+      <c r="F413" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G413" s="11" t="s">
+      <c r="G413" s="60" t="s">
         <v>1102</v>
       </c>
       <c r="H413" s="32"/>
@@ -25080,25 +25116,25 @@
       <c r="O413" s="31"/>
     </row>
     <row r="414" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A414" s="53" t="s">
+      <c r="A414" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="B414" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C414" s="11" t="s">
+      <c r="B414" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C414" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D414" s="33">
+      <c r="D414" s="61">
         <v>400</v>
       </c>
-      <c r="E414" s="11" t="s">
+      <c r="E414" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F414" s="11" t="s">
+      <c r="F414" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G414" s="11" t="s">
+      <c r="G414" s="60" t="s">
         <v>1103</v>
       </c>
       <c r="H414" s="32"/>
@@ -25185,25 +25221,25 @@
       <c r="O416" s="31"/>
     </row>
     <row r="417" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A417" s="53" t="s">
+      <c r="A417" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="B417" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C417" s="11" t="s">
+      <c r="B417" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C417" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D417" s="33">
+      <c r="D417" s="61">
         <v>50</v>
       </c>
-      <c r="E417" s="11" t="s">
+      <c r="E417" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F417" s="11" t="s">
+      <c r="F417" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G417" s="11" t="s">
+      <c r="G417" s="60" t="s">
         <v>1104</v>
       </c>
       <c r="H417" s="32"/>
@@ -25220,25 +25256,25 @@
       <c r="O417" s="31"/>
     </row>
     <row r="418" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A418" s="53" t="s">
+      <c r="A418" s="59" t="s">
         <v>463</v>
       </c>
-      <c r="B418" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C418" s="11" t="s">
+      <c r="B418" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C418" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D418" s="33">
+      <c r="D418" s="61">
         <v>400</v>
       </c>
-      <c r="E418" s="11" t="s">
+      <c r="E418" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F418" s="11" t="s">
+      <c r="F418" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G418" s="11" t="s">
+      <c r="G418" s="60" t="s">
         <v>1105</v>
       </c>
       <c r="H418" s="32"/>
@@ -25325,25 +25361,25 @@
       <c r="O420" s="31"/>
     </row>
     <row r="421" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A421" s="53" t="s">
+      <c r="A421" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="B421" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C421" s="11" t="s">
+      <c r="B421" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C421" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D421" s="33">
+      <c r="D421" s="61">
         <v>50</v>
       </c>
-      <c r="E421" s="11" t="s">
+      <c r="E421" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F421" s="11" t="s">
+      <c r="F421" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G421" s="11" t="s">
+      <c r="G421" s="60" t="s">
         <v>1106</v>
       </c>
       <c r="H421" s="32"/>
@@ -25360,25 +25396,25 @@
       <c r="O421" s="31"/>
     </row>
     <row r="422" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A422" s="53" t="s">
+      <c r="A422" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="B422" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C422" s="11" t="s">
+      <c r="B422" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C422" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D422" s="33">
+      <c r="D422" s="61">
         <v>400</v>
       </c>
-      <c r="E422" s="11" t="s">
+      <c r="E422" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F422" s="11" t="s">
+      <c r="F422" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G422" s="11" t="s">
+      <c r="G422" s="60" t="s">
         <v>1125</v>
       </c>
       <c r="H422" s="32"/>
@@ -25465,25 +25501,25 @@
       <c r="O424" s="31"/>
     </row>
     <row r="425" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A425" s="53" t="s">
+      <c r="A425" s="59" t="s">
         <v>470</v>
       </c>
-      <c r="B425" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C425" s="11" t="s">
+      <c r="B425" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C425" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D425" s="33">
+      <c r="D425" s="61">
         <v>50</v>
       </c>
-      <c r="E425" s="11" t="s">
+      <c r="E425" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F425" s="11" t="s">
+      <c r="F425" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G425" s="11" t="s">
+      <c r="G425" s="60" t="s">
         <v>1128</v>
       </c>
       <c r="H425" s="32"/>
@@ -25500,25 +25536,25 @@
       <c r="O425" s="31"/>
     </row>
     <row r="426" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A426" s="53" t="s">
+      <c r="A426" s="59" t="s">
         <v>471</v>
       </c>
-      <c r="B426" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C426" s="11" t="s">
+      <c r="B426" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C426" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D426" s="33">
+      <c r="D426" s="61">
         <v>400</v>
       </c>
-      <c r="E426" s="11" t="s">
+      <c r="E426" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F426" s="11" t="s">
+      <c r="F426" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G426" s="11" t="s">
+      <c r="G426" s="60" t="s">
         <v>1129</v>
       </c>
       <c r="H426" s="32"/>
@@ -25605,25 +25641,25 @@
       <c r="O428" s="31"/>
     </row>
     <row r="429" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A429" s="53" t="s">
+      <c r="A429" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B429" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C429" s="11" t="s">
+      <c r="B429" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C429" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D429" s="33">
+      <c r="D429" s="61">
         <v>50</v>
       </c>
-      <c r="E429" s="11" t="s">
+      <c r="E429" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F429" s="11" t="s">
+      <c r="F429" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G429" s="11" t="s">
+      <c r="G429" s="60" t="s">
         <v>1132</v>
       </c>
       <c r="H429" s="32"/>
@@ -25640,25 +25676,25 @@
       <c r="O429" s="31"/>
     </row>
     <row r="430" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A430" s="53" t="s">
+      <c r="A430" s="59" t="s">
         <v>475</v>
       </c>
-      <c r="B430" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C430" s="11" t="s">
+      <c r="B430" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C430" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D430" s="33">
+      <c r="D430" s="61">
         <v>400</v>
       </c>
-      <c r="E430" s="11" t="s">
+      <c r="E430" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F430" s="11" t="s">
+      <c r="F430" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G430" s="11" t="s">
+      <c r="G430" s="60" t="s">
         <v>1133</v>
       </c>
       <c r="H430" s="32"/>
@@ -25745,25 +25781,25 @@
       <c r="O432" s="31"/>
     </row>
     <row r="433" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A433" s="53" t="s">
+      <c r="A433" s="59" t="s">
         <v>478</v>
       </c>
-      <c r="B433" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C433" s="11" t="s">
+      <c r="B433" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C433" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D433" s="33">
+      <c r="D433" s="61">
         <v>50</v>
       </c>
-      <c r="E433" s="11" t="s">
+      <c r="E433" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F433" s="11" t="s">
+      <c r="F433" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G433" s="11" t="s">
+      <c r="G433" s="60" t="s">
         <v>1136</v>
       </c>
       <c r="H433" s="32"/>
@@ -25780,25 +25816,25 @@
       <c r="O433" s="31"/>
     </row>
     <row r="434" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A434" s="53" t="s">
+      <c r="A434" s="59" t="s">
         <v>479</v>
       </c>
-      <c r="B434" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C434" s="11" t="s">
+      <c r="B434" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C434" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D434" s="33">
+      <c r="D434" s="61">
         <v>400</v>
       </c>
-      <c r="E434" s="11" t="s">
+      <c r="E434" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F434" s="11" t="s">
+      <c r="F434" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G434" s="11" t="s">
+      <c r="G434" s="60" t="s">
         <v>1137</v>
       </c>
       <c r="H434" s="32"/>
@@ -25885,25 +25921,25 @@
       <c r="O436" s="31"/>
     </row>
     <row r="437" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A437" s="53" t="s">
+      <c r="A437" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="B437" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C437" s="11" t="s">
+      <c r="B437" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C437" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D437" s="33">
+      <c r="D437" s="61">
         <v>50</v>
       </c>
-      <c r="E437" s="11" t="s">
+      <c r="E437" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F437" s="11" t="s">
+      <c r="F437" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G437" s="11" t="s">
+      <c r="G437" s="60" t="s">
         <v>1140</v>
       </c>
       <c r="H437" s="32"/>
@@ -25920,25 +25956,25 @@
       <c r="O437" s="31"/>
     </row>
     <row r="438" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A438" s="53" t="s">
+      <c r="A438" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="B438" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C438" s="11" t="s">
+      <c r="B438" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C438" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D438" s="33">
+      <c r="D438" s="61">
         <v>400</v>
       </c>
-      <c r="E438" s="11" t="s">
+      <c r="E438" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F438" s="11" t="s">
+      <c r="F438" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G438" s="11" t="s">
+      <c r="G438" s="60" t="s">
         <v>1141</v>
       </c>
       <c r="H438" s="32"/>
@@ -26025,25 +26061,25 @@
       <c r="O440" s="31"/>
     </row>
     <row r="441" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A441" s="53" t="s">
+      <c r="A441" s="59" t="s">
         <v>486</v>
       </c>
-      <c r="B441" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C441" s="11" t="s">
+      <c r="B441" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C441" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D441" s="33">
+      <c r="D441" s="61">
         <v>50</v>
       </c>
-      <c r="E441" s="11" t="s">
+      <c r="E441" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F441" s="11" t="s">
+      <c r="F441" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G441" s="11" t="s">
+      <c r="G441" s="60" t="s">
         <v>1144</v>
       </c>
       <c r="H441" s="32"/>
@@ -26060,25 +26096,25 @@
       <c r="O441" s="31"/>
     </row>
     <row r="442" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A442" s="53" t="s">
+      <c r="A442" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="B442" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C442" s="11" t="s">
+      <c r="B442" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C442" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D442" s="33">
+      <c r="D442" s="61">
         <v>400</v>
       </c>
-      <c r="E442" s="11" t="s">
+      <c r="E442" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F442" s="11" t="s">
+      <c r="F442" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G442" s="11" t="s">
+      <c r="G442" s="60" t="s">
         <v>1145</v>
       </c>
       <c r="H442" s="32"/>
@@ -26165,25 +26201,25 @@
       <c r="O444" s="31"/>
     </row>
     <row r="445" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A445" s="53" t="s">
+      <c r="A445" s="59" t="s">
         <v>490</v>
       </c>
-      <c r="B445" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C445" s="11" t="s">
+      <c r="B445" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C445" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D445" s="33">
+      <c r="D445" s="61">
         <v>50</v>
       </c>
-      <c r="E445" s="11" t="s">
+      <c r="E445" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F445" s="11" t="s">
+      <c r="F445" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G445" s="11" t="s">
+      <c r="G445" s="60" t="s">
         <v>1148</v>
       </c>
       <c r="H445" s="32"/>
@@ -26200,25 +26236,25 @@
       <c r="O445" s="31"/>
     </row>
     <row r="446" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A446" s="53" t="s">
+      <c r="A446" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="B446" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C446" s="11" t="s">
+      <c r="B446" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C446" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D446" s="33">
+      <c r="D446" s="61">
         <v>400</v>
       </c>
-      <c r="E446" s="11" t="s">
+      <c r="E446" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F446" s="11" t="s">
+      <c r="F446" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G446" s="11" t="s">
+      <c r="G446" s="60" t="s">
         <v>1149</v>
       </c>
       <c r="H446" s="32"/>
@@ -26305,25 +26341,25 @@
       <c r="O448" s="31"/>
     </row>
     <row r="449" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A449" s="53" t="s">
+      <c r="A449" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="B449" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C449" s="11" t="s">
+      <c r="B449" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C449" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D449" s="33">
+      <c r="D449" s="61">
         <v>50</v>
       </c>
-      <c r="E449" s="11" t="s">
+      <c r="E449" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F449" s="11" t="s">
+      <c r="F449" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G449" s="11" t="s">
+      <c r="G449" s="60" t="s">
         <v>1152</v>
       </c>
       <c r="H449" s="32"/>
@@ -26340,25 +26376,25 @@
       <c r="O449" s="31"/>
     </row>
     <row r="450" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A450" s="53" t="s">
+      <c r="A450" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="B450" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C450" s="11" t="s">
+      <c r="B450" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C450" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D450" s="33">
+      <c r="D450" s="61">
         <v>400</v>
       </c>
-      <c r="E450" s="11" t="s">
+      <c r="E450" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F450" s="11" t="s">
+      <c r="F450" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G450" s="11" t="s">
+      <c r="G450" s="60" t="s">
         <v>1153</v>
       </c>
       <c r="H450" s="32"/>
@@ -26445,25 +26481,25 @@
       <c r="O452" s="31"/>
     </row>
     <row r="453" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A453" s="53" t="s">
+      <c r="A453" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="B453" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C453" s="11" t="s">
+      <c r="B453" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C453" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D453" s="33">
+      <c r="D453" s="61">
         <v>50</v>
       </c>
-      <c r="E453" s="11" t="s">
+      <c r="E453" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F453" s="11" t="s">
+      <c r="F453" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G453" s="11" t="s">
+      <c r="G453" s="60" t="s">
         <v>1156</v>
       </c>
       <c r="H453" s="32"/>
@@ -26480,25 +26516,25 @@
       <c r="O453" s="31"/>
     </row>
     <row r="454" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A454" s="53" t="s">
+      <c r="A454" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="B454" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C454" s="11" t="s">
+      <c r="B454" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C454" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D454" s="33">
+      <c r="D454" s="61">
         <v>400</v>
       </c>
-      <c r="E454" s="11" t="s">
+      <c r="E454" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F454" s="11" t="s">
+      <c r="F454" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G454" s="11" t="s">
+      <c r="G454" s="60" t="s">
         <v>1157</v>
       </c>
       <c r="H454" s="32"/>
@@ -26585,25 +26621,25 @@
       <c r="O456" s="31"/>
     </row>
     <row r="457" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A457" s="53" t="s">
+      <c r="A457" s="59" t="s">
         <v>502</v>
       </c>
-      <c r="B457" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C457" s="11" t="s">
+      <c r="B457" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C457" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D457" s="33">
+      <c r="D457" s="61">
         <v>50</v>
       </c>
-      <c r="E457" s="11" t="s">
+      <c r="E457" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F457" s="11" t="s">
+      <c r="F457" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G457" s="11" t="s">
+      <c r="G457" s="60" t="s">
         <v>1160</v>
       </c>
       <c r="H457" s="32"/>
@@ -26620,25 +26656,25 @@
       <c r="O457" s="31"/>
     </row>
     <row r="458" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A458" s="53" t="s">
+      <c r="A458" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="B458" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C458" s="11" t="s">
+      <c r="B458" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C458" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D458" s="33">
+      <c r="D458" s="61">
         <v>400</v>
       </c>
-      <c r="E458" s="11" t="s">
+      <c r="E458" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F458" s="11" t="s">
+      <c r="F458" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G458" s="11" t="s">
+      <c r="G458" s="60" t="s">
         <v>1161</v>
       </c>
       <c r="H458" s="32"/>
@@ -26725,25 +26761,25 @@
       <c r="O460" s="31"/>
     </row>
     <row r="461" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A461" s="53" t="s">
+      <c r="A461" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="B461" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C461" s="11" t="s">
+      <c r="B461" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C461" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D461" s="33">
+      <c r="D461" s="61">
         <v>50</v>
       </c>
-      <c r="E461" s="11" t="s">
+      <c r="E461" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F461" s="11" t="s">
+      <c r="F461" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G461" s="11" t="s">
+      <c r="G461" s="60" t="s">
         <v>1164</v>
       </c>
       <c r="H461" s="32"/>
@@ -26760,25 +26796,25 @@
       <c r="O461" s="31"/>
     </row>
     <row r="462" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A462" s="53" t="s">
+      <c r="A462" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="B462" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C462" s="11" t="s">
+      <c r="B462" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C462" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D462" s="33">
+      <c r="D462" s="61">
         <v>400</v>
       </c>
-      <c r="E462" s="11" t="s">
+      <c r="E462" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F462" s="11" t="s">
+      <c r="F462" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G462" s="11" t="s">
+      <c r="G462" s="60" t="s">
         <v>1165</v>
       </c>
       <c r="H462" s="32"/>
@@ -26865,25 +26901,25 @@
       <c r="O464" s="31"/>
     </row>
     <row r="465" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A465" s="53" t="s">
+      <c r="A465" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="B465" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C465" s="11" t="s">
+      <c r="B465" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C465" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D465" s="33">
+      <c r="D465" s="61">
         <v>50</v>
       </c>
-      <c r="E465" s="11" t="s">
+      <c r="E465" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F465" s="11" t="s">
+      <c r="F465" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G465" s="11" t="s">
+      <c r="G465" s="60" t="s">
         <v>1168</v>
       </c>
       <c r="H465" s="32"/>
@@ -26900,25 +26936,25 @@
       <c r="O465" s="31"/>
     </row>
     <row r="466" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A466" s="53" t="s">
+      <c r="A466" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="B466" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C466" s="11" t="s">
+      <c r="B466" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C466" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D466" s="33">
+      <c r="D466" s="61">
         <v>400</v>
       </c>
-      <c r="E466" s="11" t="s">
+      <c r="E466" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F466" s="11" t="s">
+      <c r="F466" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G466" s="11" t="s">
+      <c r="G466" s="60" t="s">
         <v>1169</v>
       </c>
       <c r="H466" s="32"/>
@@ -27005,25 +27041,25 @@
       <c r="O468" s="31"/>
     </row>
     <row r="469" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A469" s="53" t="s">
+      <c r="A469" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="B469" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C469" s="11" t="s">
+      <c r="B469" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C469" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D469" s="33">
+      <c r="D469" s="61">
         <v>50</v>
       </c>
-      <c r="E469" s="11" t="s">
+      <c r="E469" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F469" s="11" t="s">
+      <c r="F469" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G469" s="11" t="s">
+      <c r="G469" s="60" t="s">
         <v>1172</v>
       </c>
       <c r="H469" s="32"/>
@@ -27040,25 +27076,25 @@
       <c r="O469" s="31"/>
     </row>
     <row r="470" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A470" s="53" t="s">
+      <c r="A470" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="B470" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C470" s="11" t="s">
+      <c r="B470" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C470" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D470" s="33">
+      <c r="D470" s="61">
         <v>400</v>
       </c>
-      <c r="E470" s="11" t="s">
+      <c r="E470" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F470" s="11" t="s">
+      <c r="F470" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G470" s="11" t="s">
+      <c r="G470" s="60" t="s">
         <v>1173</v>
       </c>
       <c r="H470" s="32"/>
@@ -27145,25 +27181,25 @@
       <c r="O472" s="31"/>
     </row>
     <row r="473" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A473" s="53" t="s">
+      <c r="A473" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="B473" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C473" s="11" t="s">
+      <c r="B473" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C473" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D473" s="33">
+      <c r="D473" s="61">
         <v>50</v>
       </c>
-      <c r="E473" s="11" t="s">
+      <c r="E473" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F473" s="11" t="s">
+      <c r="F473" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G473" s="11" t="s">
+      <c r="G473" s="60" t="s">
         <v>1176</v>
       </c>
       <c r="H473" s="32"/>
@@ -27180,25 +27216,25 @@
       <c r="O473" s="31"/>
     </row>
     <row r="474" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A474" s="53" t="s">
+      <c r="A474" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="B474" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C474" s="11" t="s">
+      <c r="B474" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C474" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D474" s="33">
+      <c r="D474" s="61">
         <v>400</v>
       </c>
-      <c r="E474" s="11" t="s">
+      <c r="E474" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F474" s="11" t="s">
+      <c r="F474" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G474" s="11" t="s">
+      <c r="G474" s="60" t="s">
         <v>1177</v>
       </c>
       <c r="H474" s="32"/>
@@ -27285,25 +27321,25 @@
       <c r="O476" s="31"/>
     </row>
     <row r="477" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A477" s="53" t="s">
+      <c r="A477" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="B477" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C477" s="11" t="s">
+      <c r="B477" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C477" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D477" s="33">
+      <c r="D477" s="61">
         <v>50</v>
       </c>
-      <c r="E477" s="11" t="s">
+      <c r="E477" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F477" s="11" t="s">
+      <c r="F477" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G477" s="11" t="s">
+      <c r="G477" s="60" t="s">
         <v>1180</v>
       </c>
       <c r="H477" s="32"/>
@@ -27320,25 +27356,25 @@
       <c r="O477" s="31"/>
     </row>
     <row r="478" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A478" s="53" t="s">
+      <c r="A478" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="B478" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C478" s="11" t="s">
+      <c r="B478" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C478" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D478" s="33">
+      <c r="D478" s="61">
         <v>400</v>
       </c>
-      <c r="E478" s="11" t="s">
+      <c r="E478" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F478" s="11" t="s">
+      <c r="F478" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G478" s="11" t="s">
+      <c r="G478" s="60" t="s">
         <v>1181</v>
       </c>
       <c r="H478" s="32"/>
@@ -27425,25 +27461,25 @@
       <c r="O480" s="31"/>
     </row>
     <row r="481" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A481" s="53" t="s">
+      <c r="A481" s="59" t="s">
         <v>526</v>
       </c>
-      <c r="B481" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C481" s="11" t="s">
+      <c r="B481" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C481" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D481" s="33">
+      <c r="D481" s="61">
         <v>50</v>
       </c>
-      <c r="E481" s="11" t="s">
+      <c r="E481" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F481" s="11" t="s">
+      <c r="F481" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G481" s="11" t="s">
+      <c r="G481" s="60" t="s">
         <v>1184</v>
       </c>
       <c r="H481" s="32"/>
@@ -27460,25 +27496,25 @@
       <c r="O481" s="31"/>
     </row>
     <row r="482" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A482" s="53" t="s">
+      <c r="A482" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="B482" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C482" s="11" t="s">
+      <c r="B482" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C482" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D482" s="33">
+      <c r="D482" s="61">
         <v>400</v>
       </c>
-      <c r="E482" s="11" t="s">
+      <c r="E482" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F482" s="11" t="s">
+      <c r="F482" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G482" s="11" t="s">
+      <c r="G482" s="60" t="s">
         <v>1185</v>
       </c>
       <c r="H482" s="32"/>
@@ -27565,25 +27601,25 @@
       <c r="O484" s="31"/>
     </row>
     <row r="485" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A485" s="53" t="s">
+      <c r="A485" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="B485" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C485" s="11" t="s">
+      <c r="B485" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C485" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D485" s="33">
+      <c r="D485" s="61">
         <v>50</v>
       </c>
-      <c r="E485" s="11" t="s">
+      <c r="E485" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F485" s="11" t="s">
+      <c r="F485" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G485" s="11" t="s">
+      <c r="G485" s="60" t="s">
         <v>1188</v>
       </c>
       <c r="H485" s="32"/>
@@ -27600,25 +27636,25 @@
       <c r="O485" s="31"/>
     </row>
     <row r="486" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A486" s="53" t="s">
+      <c r="A486" s="59" t="s">
         <v>531</v>
       </c>
-      <c r="B486" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C486" s="11" t="s">
+      <c r="B486" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C486" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D486" s="33">
+      <c r="D486" s="61">
         <v>400</v>
       </c>
-      <c r="E486" s="11" t="s">
+      <c r="E486" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F486" s="11" t="s">
+      <c r="F486" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G486" s="11" t="s">
+      <c r="G486" s="60" t="s">
         <v>1189</v>
       </c>
       <c r="H486" s="32"/>
@@ -27705,25 +27741,25 @@
       <c r="O488" s="31"/>
     </row>
     <row r="489" spans="1:15" ht="48" x14ac:dyDescent="0.2">
-      <c r="A489" s="53" t="s">
+      <c r="A489" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="B489" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C489" s="11" t="s">
+      <c r="B489" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C489" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D489" s="33">
+      <c r="D489" s="61">
         <v>50</v>
       </c>
-      <c r="E489" s="11" t="s">
+      <c r="E489" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F489" s="11" t="s">
+      <c r="F489" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G489" s="11" t="s">
+      <c r="G489" s="60" t="s">
         <v>1192</v>
       </c>
       <c r="H489" s="32"/>
@@ -27740,25 +27776,25 @@
       <c r="O489" s="31"/>
     </row>
     <row r="490" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A490" s="53" t="s">
+      <c r="A490" s="59" t="s">
         <v>535</v>
       </c>
-      <c r="B490" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C490" s="11" t="s">
+      <c r="B490" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C490" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D490" s="33">
+      <c r="D490" s="61">
         <v>400</v>
       </c>
-      <c r="E490" s="11" t="s">
+      <c r="E490" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F490" s="11" t="s">
+      <c r="F490" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G490" s="11" t="s">
+      <c r="G490" s="60" t="s">
         <v>1193</v>
       </c>
       <c r="H490" s="32"/>
@@ -27845,25 +27881,25 @@
       <c r="O492" s="31"/>
     </row>
     <row r="493" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A493" s="53" t="s">
+      <c r="A493" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="B493" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C493" s="11" t="s">
+      <c r="B493" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C493" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D493" s="33">
+      <c r="D493" s="61">
         <v>50</v>
       </c>
-      <c r="E493" s="11" t="s">
+      <c r="E493" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F493" s="11" t="s">
+      <c r="F493" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="G493" s="11" t="s">
+      <c r="G493" s="60" t="s">
         <v>1196</v>
       </c>
       <c r="H493" s="32"/>
@@ -27880,25 +27916,25 @@
       <c r="O493" s="31"/>
     </row>
     <row r="494" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A494" s="53" t="s">
+      <c r="A494" s="59" t="s">
         <v>540</v>
       </c>
-      <c r="B494" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C494" s="11" t="s">
+      <c r="B494" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C494" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D494" s="33">
+      <c r="D494" s="61">
         <v>400</v>
       </c>
-      <c r="E494" s="11" t="s">
+      <c r="E494" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F494" s="11" t="s">
+      <c r="F494" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G494" s="11" t="s">
+      <c r="G494" s="60" t="s">
         <v>1197</v>
       </c>
       <c r="H494" s="32"/>
@@ -27985,25 +28021,25 @@
       <c r="O496" s="31"/>
     </row>
     <row r="497" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A497" s="53" t="s">
+      <c r="A497" s="59" t="s">
         <v>543</v>
       </c>
-      <c r="B497" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C497" s="11" t="s">
+      <c r="B497" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C497" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D497" s="33">
+      <c r="D497" s="61">
         <v>50</v>
       </c>
-      <c r="E497" s="11" t="s">
+      <c r="E497" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F497" s="11" t="s">
+      <c r="F497" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G497" s="11" t="s">
+      <c r="G497" s="60" t="s">
         <v>1200</v>
       </c>
       <c r="H497" s="32"/>
@@ -28020,25 +28056,25 @@
       <c r="O497" s="31"/>
     </row>
     <row r="498" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A498" s="53" t="s">
+      <c r="A498" s="59" t="s">
         <v>544</v>
       </c>
-      <c r="B498" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C498" s="11" t="s">
+      <c r="B498" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C498" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D498" s="33">
+      <c r="D498" s="61">
         <v>400</v>
       </c>
-      <c r="E498" s="11" t="s">
+      <c r="E498" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F498" s="11" t="s">
+      <c r="F498" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G498" s="11" t="s">
+      <c r="G498" s="60" t="s">
         <v>1201</v>
       </c>
       <c r="H498" s="32"/>
@@ -28125,25 +28161,25 @@
       <c r="O500" s="31"/>
     </row>
     <row r="501" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A501" s="53" t="s">
+      <c r="A501" s="59" t="s">
         <v>547</v>
       </c>
-      <c r="B501" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C501" s="11" t="s">
+      <c r="B501" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C501" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D501" s="33">
+      <c r="D501" s="61">
         <v>50</v>
       </c>
-      <c r="E501" s="11" t="s">
+      <c r="E501" s="60" t="s">
         <v>355</v>
       </c>
-      <c r="F501" s="11" t="s">
+      <c r="F501" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G501" s="11" t="s">
+      <c r="G501" s="60" t="s">
         <v>1204</v>
       </c>
       <c r="H501" s="32"/>
@@ -28160,25 +28196,25 @@
       <c r="O501" s="31"/>
     </row>
     <row r="502" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A502" s="53" t="s">
+      <c r="A502" s="80" t="s">
         <v>548</v>
       </c>
-      <c r="B502" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C502" s="11" t="s">
+      <c r="B502" s="81" t="s">
+        <v>626</v>
+      </c>
+      <c r="C502" s="81" t="s">
         <v>625</v>
       </c>
-      <c r="D502" s="33">
+      <c r="D502" s="88">
         <v>400</v>
       </c>
-      <c r="E502" s="11" t="s">
+      <c r="E502" s="81" t="s">
         <v>355</v>
       </c>
-      <c r="F502" s="11" t="s">
+      <c r="F502" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="G502" s="11" t="s">
+      <c r="G502" s="81" t="s">
         <v>1205</v>
       </c>
       <c r="H502" s="32"/>
@@ -28580,25 +28616,25 @@
       <c r="O513" s="31"/>
     </row>
     <row r="514" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A514" s="53" t="s">
+      <c r="A514" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="B514" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C514" s="11" t="s">
+      <c r="B514" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C514" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D514" s="33">
+      <c r="D514" s="61">
         <v>400</v>
       </c>
-      <c r="E514" s="11" t="s">
+      <c r="E514" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F514" s="11" t="s">
+      <c r="F514" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G514" s="11" t="s">
+      <c r="G514" s="60" t="s">
         <v>1217</v>
       </c>
       <c r="H514" s="32"/>
@@ -28685,25 +28721,25 @@
       <c r="O516" s="31"/>
     </row>
     <row r="517" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A517" s="53" t="s">
+      <c r="A517" s="59" t="s">
         <v>563</v>
       </c>
-      <c r="B517" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C517" s="11" t="s">
+      <c r="B517" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C517" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D517" s="33">
+      <c r="D517" s="61">
         <v>50</v>
       </c>
-      <c r="E517" s="11" t="s">
+      <c r="E517" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F517" s="11" t="s">
+      <c r="F517" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G517" s="11" t="s">
+      <c r="G517" s="60" t="s">
         <v>1220</v>
       </c>
       <c r="H517" s="32"/>
@@ -28720,25 +28756,25 @@
       <c r="O517" s="31"/>
     </row>
     <row r="518" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A518" s="53" t="s">
+      <c r="A518" s="59" t="s">
         <v>564</v>
       </c>
-      <c r="B518" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C518" s="11" t="s">
+      <c r="B518" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C518" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D518" s="33">
+      <c r="D518" s="61">
         <v>400</v>
       </c>
-      <c r="E518" s="11" t="s">
+      <c r="E518" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F518" s="11" t="s">
+      <c r="F518" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G518" s="11" t="s">
+      <c r="G518" s="60" t="s">
         <v>1221</v>
       </c>
       <c r="H518" s="32"/>
@@ -28825,25 +28861,25 @@
       <c r="O520" s="31"/>
     </row>
     <row r="521" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A521" s="53" t="s">
+      <c r="A521" s="59" t="s">
         <v>567</v>
       </c>
-      <c r="B521" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C521" s="11" t="s">
+      <c r="B521" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C521" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D521" s="33">
+      <c r="D521" s="61">
         <v>50</v>
       </c>
-      <c r="E521" s="11" t="s">
+      <c r="E521" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F521" s="11" t="s">
+      <c r="F521" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G521" s="11" t="s">
+      <c r="G521" s="60" t="s">
         <v>1224</v>
       </c>
       <c r="H521" s="32"/>
@@ -29385,25 +29421,25 @@
       <c r="O536" s="31"/>
     </row>
     <row r="537" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A537" s="53" t="s">
+      <c r="A537" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="B537" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C537" s="11" t="s">
+      <c r="B537" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C537" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D537" s="33">
+      <c r="D537" s="61">
         <v>50</v>
       </c>
-      <c r="E537" s="11" t="s">
+      <c r="E537" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F537" s="11" t="s">
+      <c r="F537" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G537" s="11" t="s">
+      <c r="G537" s="60" t="s">
         <v>1240</v>
       </c>
       <c r="H537" s="32"/>
@@ -29420,25 +29456,25 @@
       <c r="O537" s="31"/>
     </row>
     <row r="538" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A538" s="53" t="s">
+      <c r="A538" s="59" t="s">
         <v>584</v>
       </c>
-      <c r="B538" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C538" s="11" t="s">
+      <c r="B538" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C538" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D538" s="33">
+      <c r="D538" s="61">
         <v>400</v>
       </c>
-      <c r="E538" s="11" t="s">
+      <c r="E538" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F538" s="11" t="s">
+      <c r="F538" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G538" s="11" t="s">
+      <c r="G538" s="60" t="s">
         <v>1241</v>
       </c>
       <c r="H538" s="32"/>
@@ -29525,25 +29561,25 @@
       <c r="O540" s="31"/>
     </row>
     <row r="541" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A541" s="53" t="s">
+      <c r="A541" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="B541" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="C541" s="11" t="s">
+      <c r="B541" s="60" t="s">
+        <v>626</v>
+      </c>
+      <c r="C541" s="60" t="s">
         <v>625</v>
       </c>
-      <c r="D541" s="33">
+      <c r="D541" s="61">
         <v>50</v>
       </c>
-      <c r="E541" s="11" t="s">
+      <c r="E541" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="F541" s="11" t="s">
+      <c r="F541" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G541" s="11" t="s">
+      <c r="G541" s="60" t="s">
         <v>1244</v>
       </c>
       <c r="H541" s="32"/>
@@ -30573,7 +30609,7 @@
       </c>
     </row>
     <row r="571" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A571" s="72" t="s">
+      <c r="A571" s="58" t="s">
         <v>1601</v>
       </c>
       <c r="B571" s="11" t="s">
@@ -30608,7 +30644,7 @@
       </c>
     </row>
     <row r="572" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A572" s="72" t="s">
+      <c r="A572" s="58" t="s">
         <v>1602</v>
       </c>
       <c r="B572" s="11" t="s">
@@ -30678,7 +30714,7 @@
       </c>
     </row>
     <row r="574" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A574" s="72" t="s">
+      <c r="A574" s="58" t="s">
         <v>1604</v>
       </c>
       <c r="B574" s="11" t="s">
@@ -30713,7 +30749,7 @@
       </c>
     </row>
     <row r="575" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A575" s="72" t="s">
+      <c r="A575" s="58" t="s">
         <v>1605</v>
       </c>
       <c r="B575" s="11" t="s">
@@ -30748,7 +30784,7 @@
       </c>
     </row>
     <row r="576" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A576" s="72" t="s">
+      <c r="A576" s="58" t="s">
         <v>1606</v>
       </c>
       <c r="B576" s="11" t="s">
@@ -31398,9 +31434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F213B1-A415-4219-B6DA-01A1B175BEE8}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31415,15 +31451,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="27" customFormat="1" ht="59.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>1676</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" s="28" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -33608,73 +33644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="b7635ab0-52e7-4e33-aa76-893cd120ef45">DNVT47QTA7NQ-314608861-4217</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="b7635ab0-52e7-4e33-aa76-893cd120ef45">
-      <Url>https://sharepoint.aemcorp.com/ed/EDMITS/ESFTP/_layouts/15/DocIdRedir.aspx?ID=DNVT47QTA7NQ-314608861-4217</Url>
-      <Description>DNVT47QTA7NQ-314608861-4217</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E79C3384759D094181BACE1687891C34" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9af8b407bee3c92c4c771d7d36453f42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7635ab0-52e7-4e33-aa76-893cd120ef45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c571750c5f0ebc31974f90f872357a24" ns2:_="">
     <xsd:import namespace="b7635ab0-52e7-4e33-aa76-893cd120ef45"/>
@@ -33819,39 +33788,74 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9783DE92-1309-461F-98F5-2AD7A7BFEF09}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7635ab0-52e7-4e33-aa76-893cd120ef45"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5320A964-4596-4053-86AB-B1BB9C35FBC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{693B4CB6-C656-4F97-9EEC-617EC9F0F555}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="b7635ab0-52e7-4e33-aa76-893cd120ef45">DNVT47QTA7NQ-314608861-4217</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="b7635ab0-52e7-4e33-aa76-893cd120ef45">
+      <Url>https://sharepoint.aemcorp.com/ed/EDMITS/ESFTP/_layouts/15/DocIdRedir.aspx?ID=DNVT47QTA7NQ-314608861-4217</Url>
+      <Description>DNVT47QTA7NQ-314608861-4217</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48FAB5E3-EA9C-4B88-8F42-9D6CF87BDDDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33867,4 +33871,36 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{693B4CB6-C656-4F97-9EEC-617EC9F0F555}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5320A964-4596-4053-86AB-B1BB9C35FBC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9783DE92-1309-461F-98F5-2AD7A7BFEF09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7635ab0-52e7-4e33-aa76-893cd120ef45"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>